--- a/nephele_paper/rap/plots/box_plot.xlsx
+++ b/nephele_paper/rap/plots/box_plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV KAPOOR\Downloads\Zenoh-Perf-Eval\nephele_paper\rap\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4803515C-C9FA-48EB-8E9C-8391BF28141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD01E3A-744A-4896-877E-29365E777A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="576" windowWidth="23256" windowHeight="12456" xr2:uid="{1ADADEA3-5CB7-4212-A90B-309EEA6B68E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1ADADEA3-5CB7-4212-A90B-309EEA6B68E2}"/>
   </bookViews>
   <sheets>
     <sheet name="1st_iteration" sheetId="2" r:id="rId1"/>
@@ -19,38 +19,28 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'1st_iteration'!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'1st_iteration'!$A$2:$A$2880</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'1st_iteration'!$A$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'1st_iteration'!$A$2:$A$2880</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'1st_iteration'!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'1st_iteration'!$B$2:$B$2880</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'1st_iteration'!$C$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'1st_iteration'!$C$2:$C$2880</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'1st_iteration'!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'1st_iteration'!$D$2:$D$2880</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'1st_iteration'!$E$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'1st_iteration'!$E$2:$E$2880</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'2nd_iteration'!$A$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'2nd_iteration'!$A$2:$A$2873</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'2nd_iteration'!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'2nd_iteration'!$B$2:$B$2873</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'2nd_iteration'!$C$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'2nd_iteration'!$C$2:$C$2873</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'2nd_iteration'!$D$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'2nd_iteration'!$D$2:$D$2873</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'2nd_iteration'!$E$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'2nd_iteration'!$E$2:$E$2873</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'1st_iteration'!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'2nd_iteration'!$A$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'2nd_iteration'!$A$2:$A$2873</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'2nd_iteration'!$B$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'2nd_iteration'!$B$2:$B$2873</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'2nd_iteration'!$C$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'2nd_iteration'!$C$2:$C$2873</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'2nd_iteration'!$D$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'2nd_iteration'!$D$2:$D$2873</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'2nd_iteration'!$E$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'2nd_iteration'!$E$2:$E$2873</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'1st_iteration'!$A$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'1st_iteration'!$A$2:$A$2880</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'1st_iteration'!$B$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'1st_iteration'!$B$2:$B$2880</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'1st_iteration'!$C$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'1st_iteration'!$C$2:$C$2880</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'1st_iteration'!$D$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'1st_iteration'!$D$2:$D$2880</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'1st_iteration'!$E$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'1st_iteration'!$E$2:$E$2880</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'1st_iteration'!$B$2:$B$2880</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'1st_iteration'!$A$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'1st_iteration'!$A$2:$A$2880</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'1st_iteration'!$B$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'1st_iteration'!$B$2:$B$2880</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'1st_iteration'!$C$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'1st_iteration'!$C$2:$C$2880</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'1st_iteration'!$D$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'1st_iteration'!$D$2:$D$2880</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'1st_iteration'!$E$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'1st_iteration'!$E$2:$E$2880</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'1st_iteration'!$C$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'1st_iteration'!$C$2:$C$2880</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'1st_iteration'!$D$1</definedName>
@@ -76,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="20">
   <si>
     <t>Test 1</t>
   </si>
@@ -410,7 +400,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -420,19 +410,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,12 +436,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7" xr:uid="{413F3745-F0E9-495F-9B9B-CFF8CA0357C5}"/>
@@ -638,27 +626,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -713,7 +701,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E0E81401-BE47-45BE-9F79-F9354D77FE90}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Test 1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -726,7 +714,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BC1EAD9F-74A7-4E39-9BB1-EA4A17FE3112}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Test 2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -739,7 +727,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6A927F38-9B0A-4F69-B57D-72C698BB0E36}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Test 4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -752,7 +740,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9B22F112-A6D2-465B-A69D-DDD57CF5AE73}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Test 5</cx:v>
             </cx:txData>
           </cx:tx>
@@ -765,7 +753,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{06142B73-DE33-44F5-B6D2-5DFACD4B3CC6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>Test 6</cx:v>
             </cx:txData>
           </cx:tx>
@@ -800,27 +788,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -858,7 +846,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{636EEF04-04C3-4767-BA44-415A85094116}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>Test 1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -871,7 +859,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B4D6E148-8B5E-4202-BA76-3D606FD50415}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Test 2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -884,7 +872,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{497D60BC-26FB-413F-9E2F-A90EABDF6738}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>Test 4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -897,7 +885,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{01436393-1704-420D-A8ED-F6C14E285AEF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>Test 5</cx:v>
             </cx:txData>
           </cx:tx>
@@ -910,7 +898,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D42CF269-AB4C-4262-A317-22A8786D5D19}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Test 6</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2602,8 +2590,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4789170" y="2034540"/>
-              <a:ext cx="7936230" cy="5227320"/>
+              <a:off x="4899660" y="2120265"/>
+              <a:ext cx="16076295" cy="5454015"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2685,8 +2673,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12122631" y="1051560"/>
-              <a:ext cx="7336747" cy="5485612"/>
+              <a:off x="17186121" y="1097280"/>
+              <a:ext cx="7498672" cy="5725642"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2763,8 +2751,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4023360" y="1064698"/>
-              <a:ext cx="7961733" cy="5486818"/>
+              <a:off x="4114800" y="1108513"/>
+              <a:ext cx="12912828" cy="5726848"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3114,23 +3102,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570039C0-D6CC-493A-A51D-896BD10DEC92}">
-  <dimension ref="A1:L2880"/>
+  <dimension ref="A1:R2880"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+    <sheetView topLeftCell="H37" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="8" max="8" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3677,7 +3667,7 @@
         <v>0.36100006103515603</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1.0349998474121092</v>
       </c>
@@ -3694,7 +3684,7 @@
         <v>0.38400006294250466</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>2.439000129699707</v>
       </c>
@@ -3711,7 +3701,7 @@
         <v>0.26699995994567849</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>2.2809998989105225</v>
       </c>
@@ -3728,7 +3718,7 @@
         <v>0.37599992752075173</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>2.250999927520752</v>
       </c>
@@ -3745,7 +3735,7 @@
         <v>0.32400012016296365</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>0.95599985122680642</v>
       </c>
@@ -3762,7 +3752,7 @@
         <v>0.30799984931945779</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>0.92499995231628396</v>
       </c>
@@ -3779,7 +3769,7 @@
         <v>0.3529999256134031</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>0.99900007247924782</v>
       </c>
@@ -3796,7 +3786,7 @@
         <v>0.36000013351440407</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>1.0239999294281004</v>
       </c>
@@ -3813,7 +3803,7 @@
         <v>0.32899999618530251</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1.9900000095367429</v>
       </c>
@@ -3830,7 +3820,7 @@
         <v>0.37300014495849587</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>0.91700005531311013</v>
       </c>
@@ -3847,7 +3837,7 @@
         <v>0.30999994277954079</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>0.98500013351440407</v>
       </c>
@@ -3864,7 +3854,7 @@
         <v>0.2559998035430906</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:18" ht="15">
       <c r="A44">
         <v>1.0559999942779539</v>
       </c>
@@ -3880,15 +3870,22 @@
       <c r="E44">
         <v>0.31999993324279763</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="16"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+      <c r="N44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="18"/>
+    </row>
+    <row r="45" spans="1:18" ht="15">
       <c r="A45">
         <v>1.0920000076293943</v>
       </c>
@@ -3904,21 +3901,34 @@
       <c r="E45">
         <v>0.27699995040893532</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10" t="s">
+      <c r="H45" s="8"/>
+      <c r="I45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="N45" s="8"/>
+      <c r="O45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>0.94000005722045876</v>
       </c>
@@ -3934,7 +3944,7 @@
       <c r="E46">
         <v>0.39100003242492654</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I46" s="5">
@@ -3951,8 +3961,25 @@
         <f>100-K46</f>
         <v>93.562477821804308</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="N46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O46" s="5">
+        <v>35.021131521198654</v>
+      </c>
+      <c r="P46" s="6">
+        <v>1.9371145260417144</v>
+      </c>
+      <c r="Q46" s="6">
+        <f>P46/O46*100</f>
+        <v>5.5312733823838869</v>
+      </c>
+      <c r="R46" s="6">
+        <f>100-Q46</f>
+        <v>94.468726617616113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>1.0500001907348631</v>
       </c>
@@ -3968,7 +3995,7 @@
       <c r="E47">
         <v>0.32299995422363259</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="6">
@@ -3985,8 +4012,25 @@
         <f t="shared" ref="L47:L59" si="1">100-K47</f>
         <v>95.586489170180997</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="N47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="6">
+        <v>27.193636966105608</v>
+      </c>
+      <c r="P47" s="6">
+        <v>1.567262323617379</v>
+      </c>
+      <c r="Q47" s="6">
+        <f t="shared" ref="Q47:Q59" si="2">P47/O47*100</f>
+        <v>5.7633420846605725</v>
+      </c>
+      <c r="R47" s="6">
+        <f t="shared" ref="R47:R59" si="3">100-Q47</f>
+        <v>94.236657915339421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>0.98300004005432107</v>
       </c>
@@ -4002,7 +4046,7 @@
       <c r="E48">
         <v>0.33599996566772439</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="6">
@@ -4019,8 +4063,25 @@
         <f t="shared" si="1"/>
         <v>90.241993333945672</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="N48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O48" s="6">
+        <v>26.349495396438709</v>
+      </c>
+      <c r="P48" s="6">
+        <v>1.577425317230206</v>
+      </c>
+      <c r="Q48" s="6">
+        <f t="shared" si="2"/>
+        <v>5.9865484841254473</v>
+      </c>
+      <c r="R48" s="6">
+        <f t="shared" si="3"/>
+        <v>94.01345151587455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>1.0970001220703123</v>
       </c>
@@ -4036,7 +4097,7 @@
       <c r="E49">
         <v>0.45299983024597146</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I49" s="5">
@@ -4053,8 +4114,25 @@
         <f t="shared" si="1"/>
         <v>75.963508336927276</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="N49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" s="5">
+        <v>5.495375031402796</v>
+      </c>
+      <c r="P49" s="6">
+        <v>0.96561939389438545</v>
+      </c>
+      <c r="Q49" s="6">
+        <f t="shared" si="2"/>
+        <v>17.571492179813855</v>
+      </c>
+      <c r="R49" s="6">
+        <f t="shared" si="3"/>
+        <v>82.428507820186141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>1.0370001792907713</v>
       </c>
@@ -4070,7 +4148,7 @@
       <c r="E50">
         <v>0.3680000305175779</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="6">
@@ -4087,8 +4165,25 @@
         <f t="shared" si="1"/>
         <v>58.167497360555515</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="N50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50" s="6">
+        <v>6.012E-3</v>
+      </c>
+      <c r="P50" s="6">
+        <v>1.9840835066319363E-3</v>
+      </c>
+      <c r="Q50" s="6">
+        <f t="shared" si="2"/>
+        <v>33.002054335195211</v>
+      </c>
+      <c r="R50" s="6">
+        <f t="shared" si="3"/>
+        <v>66.997945664804789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>2.2139999866485596</v>
       </c>
@@ -4104,7 +4199,7 @@
       <c r="E51">
         <v>0.38700008392333962</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I51" s="6">
@@ -4121,8 +4216,25 @@
         <f t="shared" si="1"/>
         <v>58.199972415177264</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="N51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" s="6">
+        <v>6.012E-3</v>
+      </c>
+      <c r="P51" s="6">
+        <v>1.9960358169128513E-3</v>
+      </c>
+      <c r="Q51" s="6">
+        <f t="shared" si="2"/>
+        <v>33.20086189143133</v>
+      </c>
+      <c r="R51" s="6">
+        <f t="shared" si="3"/>
+        <v>66.79913810856867</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15">
       <c r="A52">
         <v>2.2810001373291016</v>
       </c>
@@ -4141,24 +4253,43 @@
       <c r="H52" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="12">
         <f>SUM(I46:I51)</f>
         <v>79.895351578052697</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="12">
         <f>SUM(J46:J51)</f>
         <v>5.8066808225405779</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="12">
         <f t="shared" si="0"/>
         <v>7.267858151757201</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="12">
         <f t="shared" si="1"/>
         <v>92.732141848242804</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="N52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O52" s="12">
+        <f>SUM(O46:O51)</f>
+        <v>94.071662915145765</v>
+      </c>
+      <c r="P52" s="12">
+        <f>SUM(P46:P51)</f>
+        <v>6.0514016801072303</v>
+      </c>
+      <c r="Q52" s="12">
+        <f t="shared" si="2"/>
+        <v>6.4327572114523974</v>
+      </c>
+      <c r="R52" s="12">
+        <f t="shared" si="3"/>
+        <v>93.567242788547603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15">
       <c r="A53">
         <v>2.249000072479248</v>
       </c>
@@ -4175,16 +4306,25 @@
         <v>0.3659999370574949</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="N53" s="7"/>
+      <c r="O53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>1.2469999790191648</v>
       </c>
@@ -4200,7 +4340,7 @@
       <c r="E54">
         <v>0.62899994850158669</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="6">
@@ -4217,8 +4357,25 @@
         <f t="shared" si="1"/>
         <v>93.562477821804308</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="N54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O54" s="6">
+        <v>12.666786574507617</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0.70063459419911545</v>
+      </c>
+      <c r="Q54" s="6">
+        <f t="shared" ref="Q54:Q66" si="4">P54/O54*100</f>
+        <v>5.531273382383886</v>
+      </c>
+      <c r="R54" s="6">
+        <f t="shared" ref="R54:R66" si="5">100-Q54</f>
+        <v>94.468726617616113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>0.92300009727478005</v>
       </c>
@@ -4234,7 +4391,7 @@
       <c r="E55">
         <v>0.37199997901916482</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I55" s="5">
@@ -4251,8 +4408,25 @@
         <f t="shared" si="1"/>
         <v>95.586489170180997</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="N55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O55" s="5">
+        <v>9.8356615184120404</v>
+      </c>
+      <c r="P55" s="6">
+        <v>0.56686281959540619</v>
+      </c>
+      <c r="Q55" s="6">
+        <f t="shared" si="4"/>
+        <v>5.7633420846605716</v>
+      </c>
+      <c r="R55" s="6">
+        <f t="shared" si="5"/>
+        <v>94.236657915339435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>1.0010001659393308</v>
       </c>
@@ -4268,7 +4442,7 @@
       <c r="E56">
         <v>0.32099986076354958</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I56" s="6">
@@ -4285,8 +4459,25 @@
         <f t="shared" si="1"/>
         <v>90.241993333945672</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="N56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O56" s="6">
+        <v>14.295516165602599</v>
+      </c>
+      <c r="P56" s="6">
+        <v>0.85580800630979059</v>
+      </c>
+      <c r="Q56" s="6">
+        <f t="shared" si="4"/>
+        <v>5.9865484841254464</v>
+      </c>
+      <c r="R56" s="6">
+        <f t="shared" si="5"/>
+        <v>94.01345151587455</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>1.0710000991821287</v>
       </c>
@@ -4302,7 +4493,7 @@
       <c r="E57">
         <v>0.34899997711181618</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="5">
@@ -4319,8 +4510,25 @@
         <f t="shared" si="1"/>
         <v>75.967910334607197</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="N57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="5">
+        <v>21.06357041735108</v>
+      </c>
+      <c r="P57" s="6">
+        <v>3.7013121016380386</v>
+      </c>
+      <c r="Q57" s="6">
+        <f t="shared" si="4"/>
+        <v>17.572102109474702</v>
+      </c>
+      <c r="R57" s="6">
+        <f t="shared" si="5"/>
+        <v>82.427897890525301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>1.0420000553131101</v>
       </c>
@@ -4336,7 +4544,7 @@
       <c r="E58">
         <v>0.39000010490417458</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I58" s="6">
@@ -4353,8 +4561,25 @@
         <f t="shared" si="1"/>
         <v>58.167497360555515</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="N58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O58" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="P58" s="6">
+        <v>0.55113430739776004</v>
+      </c>
+      <c r="Q58" s="6">
+        <f t="shared" si="4"/>
+        <v>33.002054335195211</v>
+      </c>
+      <c r="R58" s="6">
+        <f t="shared" si="5"/>
+        <v>66.997945664804789</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>1.174999952316284</v>
       </c>
@@ -4370,7 +4595,7 @@
       <c r="E59">
         <v>0.28499984741210915</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I59" s="6">
@@ -4387,8 +4612,25 @@
         <f t="shared" si="1"/>
         <v>58.199972415177257</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="N59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O59" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="P59" s="6">
+        <v>0.55445439358690318</v>
+      </c>
+      <c r="Q59" s="6">
+        <f t="shared" si="4"/>
+        <v>33.20086189143133</v>
+      </c>
+      <c r="R59" s="6">
+        <f t="shared" si="5"/>
+        <v>66.79913810856867</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15">
       <c r="A60">
         <v>1.0969998836517332</v>
       </c>
@@ -4409,8 +4651,13 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="N60" s="7"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="1:18" ht="15">
       <c r="A61">
         <v>1.1340000629425047</v>
       </c>
@@ -4427,16 +4674,25 @@
         <v>0.50500011444091775</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="13" t="s">
+      <c r="I61" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="N61" s="7"/>
+      <c r="O61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P61" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>1.1540000438690183</v>
       </c>
@@ -4452,7 +4708,7 @@
       <c r="E62">
         <v>0.41600012779235818</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I62" s="6">
@@ -4465,8 +4721,21 @@
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="N62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O62" s="6">
+        <f>O46/O54</f>
+        <v>2.7647999999999997</v>
+      </c>
+      <c r="P62" s="6">
+        <f>P46/P54</f>
+        <v>2.7648000000000001</v>
+      </c>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>1.0750000476837156</v>
       </c>
@@ -4482,21 +4751,34 @@
       <c r="E63">
         <v>0.67899990081787087</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" ref="I63:J67" si="2">I47/I55</f>
+        <f t="shared" ref="I63:J67" si="6">I47/I55</f>
         <v>2.7647999999999997</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.7647999999999997</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="N63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" ref="O63:P63" si="7">O47/O55</f>
+        <v>2.7647999999999997</v>
+      </c>
+      <c r="P63" s="6">
+        <f t="shared" si="7"/>
+        <v>2.7648000000000001</v>
+      </c>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>0.99900007247924782</v>
       </c>
@@ -4512,21 +4794,34 @@
       <c r="E64">
         <v>0.31099987030029275</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.61439999999999995</v>
       </c>
       <c r="J64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.61439999999999995</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="N64" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" ref="O64:P64" si="8">O48/O56</f>
+        <v>1.8431999999999997</v>
+      </c>
+      <c r="P64" s="6">
+        <f t="shared" si="8"/>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>1.0639998912811277</v>
       </c>
@@ -4542,21 +4837,34 @@
       <c r="E65">
         <v>0.36899995803832986</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26201391099395255</v>
       </c>
       <c r="J65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26206190451612904</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="N65" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65" s="6">
+        <f t="shared" ref="O65:P65" si="9">O49/O57</f>
+        <v>0.26089475442757748</v>
+      </c>
+      <c r="P65" s="6">
+        <f t="shared" si="9"/>
+        <v>0.26088569874100714</v>
+      </c>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>1.4800000190734861</v>
       </c>
@@ -4572,21 +4880,34 @@
       <c r="E66">
         <v>0.30399990081787087</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.6000000000000003E-3</v>
       </c>
       <c r="J66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.6000000000000003E-3</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="N66" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" ref="O66:P66" si="10">O50/O58</f>
+        <v>3.6000000000000003E-3</v>
+      </c>
+      <c r="P66" s="6">
+        <f t="shared" si="10"/>
+        <v>3.6000000000000003E-3</v>
+      </c>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>1.1690001487731931</v>
       </c>
@@ -4602,21 +4923,34 @@
       <c r="E67">
         <v>0.35099983215332009</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.6000000000000003E-3</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="N67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67" s="6">
+        <f t="shared" ref="O67:P67" si="11">O51/O59</f>
+        <v>3.6000000000000003E-3</v>
+      </c>
+      <c r="P67" s="6">
+        <f t="shared" si="11"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>2.065000057220459</v>
       </c>
@@ -4633,7 +4967,7 @@
         <v>0.37599992752075173</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:18" ht="15">
       <c r="A69">
         <v>1.8340001106262205</v>
       </c>
@@ -4649,15 +4983,15 @@
       <c r="E69">
         <v>0.37699985504150368</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="16"/>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="18"/>
+    </row>
+    <row r="70" spans="1:18" ht="15">
       <c r="A70">
         <v>3.1030001640319824</v>
       </c>
@@ -4673,21 +5007,21 @@
       <c r="E70">
         <v>0.41799998283386208</v>
       </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="10" t="s">
+      <c r="H70" s="8"/>
+      <c r="I70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J70" s="10" t="s">
+      <c r="J70" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K70" s="13" t="s">
+      <c r="K70" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L70" s="13" t="s">
+      <c r="L70" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>0.99000000953674294</v>
       </c>
@@ -4703,7 +5037,7 @@
       <c r="E71">
         <v>0.3120000362396238</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I71" s="6">
@@ -4713,15 +5047,15 @@
         <v>5.8941879761255915</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71" si="3">J71/I71*100</f>
+        <f t="shared" ref="K71" si="12">J71/I71*100</f>
         <v>40.53216950584261</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" ref="L71:L73" si="4">100-K71</f>
+        <f t="shared" ref="L71:L73" si="13">100-K71</f>
         <v>59.46783049415739</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:18" ht="15">
       <c r="A72">
         <v>0.95799994468688943</v>
       </c>
@@ -4738,16 +5072,16 @@
         <v>0.35399985313415505</v>
       </c>
       <c r="H72" s="7"/>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="J72" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>0.74500012397766091</v>
       </c>
@@ -4763,7 +5097,7 @@
       <c r="E73">
         <v>0.42999982833862282</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I73" s="6">
@@ -4773,15 +5107,15 @@
         <v>9.5934049090585791</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" ref="K73" si="5">J73/I73*100</f>
+        <f t="shared" ref="K73" si="14">J73/I73*100</f>
         <v>40.532169505842603</v>
       </c>
       <c r="L73" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>59.467830494157397</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:18" ht="15">
       <c r="A74">
         <v>0.78799986839294411</v>
       </c>
@@ -4798,16 +5132,16 @@
         <v>0.42699980735778786</v>
       </c>
       <c r="H74" s="7"/>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>0.86399984359741189</v>
       </c>
@@ -4823,7 +5157,7 @@
       <c r="E75">
         <v>0.47399997711181618</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I75" s="6">
@@ -4837,7 +5171,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>0.93599987030029275</v>
       </c>
@@ -4854,7 +5188,7 @@
         <v>0.41899991035461404</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:18" ht="15">
       <c r="A77">
         <v>0.9500000476837156</v>
       </c>
@@ -4870,15 +5204,15 @@
       <c r="E77">
         <v>0.37399983406066872</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="I77" s="15"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+    </row>
+    <row r="78" spans="1:18" ht="15">
       <c r="A78">
         <v>1.0199999809265134</v>
       </c>
@@ -4894,15 +5228,14 @@
       <c r="E78">
         <v>0.39099979400634743</v>
       </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="10" t="s">
+      <c r="H78" s="8"/>
+      <c r="I78" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="20"/>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>1.0909998416900633</v>
       </c>
@@ -4918,17 +5251,15 @@
       <c r="E79">
         <v>0.39499998092651345</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I79" s="6">
         <v>0.61937132346611856</v>
       </c>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="20"/>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:18" ht="15">
       <c r="A80">
         <v>0.92999982833862282</v>
       </c>
@@ -4945,14 +5276,12 @@
         <v>0.41799998283386208</v>
       </c>
       <c r="H80" s="7"/>
-      <c r="I80" s="12" t="s">
+      <c r="I80" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="20"/>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>1.2119998931884763</v>
       </c>
@@ -4968,17 +5297,15 @@
       <c r="E81">
         <v>0.34800004959106423</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I81" s="6">
         <v>1.0080913467873025</v>
       </c>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="20"/>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:11" ht="15">
       <c r="A82">
         <v>1.1629998683929441</v>
       </c>
@@ -4995,14 +5322,12 @@
         <v>0.30699992179870583</v>
       </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="13" t="s">
+      <c r="I82" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="20"/>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>1.1640000343322752</v>
       </c>
@@ -5018,18 +5343,16 @@
       <c r="E83">
         <v>0.41599988937377907</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H83" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I83" s="6">
         <f>I79/I81</f>
         <v>0.61439999999999995</v>
       </c>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="20"/>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>3.5260000228881836</v>
       </c>
@@ -5046,7 +5369,7 @@
         <v>0.33599996566772439</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:11" ht="15">
       <c r="A85">
         <v>0.96599984169006325</v>
       </c>
@@ -5062,12 +5385,12 @@
       <c r="E85">
         <v>0.38999986648559548</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I85" s="8"/>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" spans="1:11" ht="15">
       <c r="A86">
         <v>1.0399999618530271</v>
       </c>
@@ -5083,12 +5406,12 @@
       <c r="E86">
         <v>0.36699986457824685</v>
       </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="10" t="s">
+      <c r="H86" s="8"/>
+      <c r="I86" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>1.0720000267028806</v>
       </c>
@@ -5104,14 +5427,14 @@
       <c r="E87">
         <v>0.29399991035461404</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H87" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I87" s="6">
         <v>1.8929766821606904</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:11" ht="15">
       <c r="A88">
         <v>1.0899999141693113</v>
       </c>
@@ -5128,11 +5451,11 @@
         <v>0.3659999370574949</v>
       </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="12" t="s">
+      <c r="I88" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>0.99800014495849587</v>
       </c>
@@ -5148,14 +5471,14 @@
       <c r="E89">
         <v>0.27799987792968728</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I89" s="6">
         <v>1.027005578429194</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:11" ht="15">
       <c r="A90">
         <v>1.0789999961853025</v>
       </c>
@@ -5172,11 +5495,11 @@
         <v>0.39800000190734841</v>
       </c>
       <c r="H90" s="7"/>
-      <c r="I90" s="13" t="s">
+      <c r="I90" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>1.9800000190734861</v>
       </c>
@@ -5192,7 +5515,7 @@
       <c r="E91">
         <v>0.36500000953674294</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I91" s="6">
@@ -5200,7 +5523,7 @@
         <v>1.8431999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>1.7650001049041746</v>
       </c>
@@ -5217,7 +5540,7 @@
         <v>0.48000001907348611</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>1.111999988555908</v>
       </c>
@@ -5234,7 +5557,7 @@
         <v>0.42599987983703591</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>2.4860000610351563</v>
       </c>
@@ -5251,7 +5574,7 @@
         <v>0.33899998664855935</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>2.3529999256134033</v>
       </c>
@@ -5268,7 +5591,7 @@
         <v>0.34299993515014626</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>1.2049999237060545</v>
       </c>
@@ -22737,11 +23060,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H85:I85"/>
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="H69:L69"/>
     <mergeCell ref="H77:I77"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22750,19 +23074,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEBBF55-C0B1-4DD9-B34F-3262C4CB0EB2}">
-  <dimension ref="A1:L2873"/>
+  <dimension ref="A1:R2873"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView tabSelected="1" topLeftCell="I38" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="8" max="8" width="21.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.8984375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="30.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="30.625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -23309,7 +23638,7 @@
         <v>0.34099984169006337</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1.307999849319458</v>
       </c>
@@ -23326,7 +23655,7 @@
         <v>0.54599976539611805</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>1.2059998512268066</v>
       </c>
@@ -23343,7 +23672,7 @@
         <v>0.78499984741210926</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>1.6009998321533203</v>
       </c>
@@ -23360,7 +23689,7 @@
         <v>0.37999987602233876</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>0.91299986839294422</v>
       </c>
@@ -23377,7 +23706,7 @@
         <v>0.37999987602233876</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>0.98199963569641102</v>
       </c>
@@ -23394,7 +23723,7 @@
         <v>0.34999990463256825</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>1.0599997043609619</v>
       </c>
@@ -23411,7 +23740,7 @@
         <v>0.32699990272521962</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>1.0199997425079346</v>
       </c>
@@ -23428,7 +23757,7 @@
         <v>0.3659996986389159</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>1.9619998931884766</v>
       </c>
@@ -23445,7 +23774,7 @@
         <v>0.35699987411499012</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41">
         <v>0.90399980545043934</v>
       </c>
@@ -23461,15 +23790,22 @@
       <c r="E41">
         <v>0.63099980354309071</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="18"/>
+      <c r="N41" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:18" ht="15">
       <c r="A42">
         <v>0.97099971771240223</v>
       </c>
@@ -23485,21 +23821,34 @@
       <c r="E42">
         <v>0.32899975776672352</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10" t="s">
+      <c r="H42" s="8"/>
+      <c r="I42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K42" s="13" t="s">
+      <c r="K42" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="13" t="s">
+      <c r="L42" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="N42" s="8"/>
+      <c r="O42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1.0439999103546143</v>
       </c>
@@ -23515,7 +23864,7 @@
       <c r="E43">
         <v>0.3099999427795409</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I43" s="6">
@@ -23532,8 +23881,25 @@
         <f>100-K43</f>
         <v>93.274965463822426</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="N43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="6">
+        <v>34.970093371281656</v>
+      </c>
+      <c r="P43" s="6">
+        <v>1.6691387831958429</v>
+      </c>
+      <c r="Q43" s="6">
+        <f>P43/O43*100</f>
+        <v>4.77304640131897</v>
+      </c>
+      <c r="R43" s="6">
+        <f>100-Q43</f>
+        <v>95.226953598681035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>1.1149997711181641</v>
       </c>
@@ -23549,7 +23915,7 @@
       <c r="E44">
         <v>0.31199979782104481</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="6">
@@ -23559,15 +23925,32 @@
         <v>1.7720237136857921</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44:K64" si="0">J44/I44*100</f>
+        <f t="shared" ref="K44:K56" si="0">J44/I44*100</f>
         <v>4.4644511104033731</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" ref="L44:L56" si="1">100-K44</f>
         <v>95.535548889596626</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="N44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="6">
+        <v>26.792444494883938</v>
+      </c>
+      <c r="P44" s="6">
+        <v>1.730871358388133</v>
+      </c>
+      <c r="Q44" s="6">
+        <f t="shared" ref="Q44:Q56" si="2">P44/O44*100</f>
+        <v>6.4602965164998123</v>
+      </c>
+      <c r="R44" s="6">
+        <f t="shared" ref="R44:R56" si="3">100-Q44</f>
+        <v>93.53970348350019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15">
       <c r="A45">
         <v>1.0259997844696045</v>
       </c>
@@ -23586,22 +23969,39 @@
       <c r="H45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="12">
         <v>14.44649569700916</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="12">
         <v>1.253367644821322</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="12">
         <f t="shared" si="0"/>
         <v>8.6759285511766375</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="12">
         <f t="shared" si="1"/>
         <v>91.324071448823361</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="N45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="12">
+        <v>26.725127813644022</v>
+      </c>
+      <c r="P45" s="12">
+        <v>1.3974083500310706</v>
+      </c>
+      <c r="Q45" s="12">
+        <f t="shared" si="2"/>
+        <v>5.228818210993361</v>
+      </c>
+      <c r="R45" s="12">
+        <f t="shared" si="3"/>
+        <v>94.771181789006633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>1.2230000495910645</v>
       </c>
@@ -23617,7 +24017,7 @@
       <c r="E46">
         <v>0.35299968719482411</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="5">
@@ -23634,8 +24034,25 @@
         <f t="shared" si="1"/>
         <v>75.580015613736137</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="N46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" s="5">
+        <v>5.5351361734471407</v>
+      </c>
+      <c r="P46" s="6">
+        <v>1.0498497842039238</v>
+      </c>
+      <c r="Q46" s="6">
+        <f t="shared" si="2"/>
+        <v>18.967009144963896</v>
+      </c>
+      <c r="R46" s="6">
+        <f t="shared" si="3"/>
+        <v>81.032990855036104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>0.95099997520446766</v>
       </c>
@@ -23651,7 +24068,7 @@
       <c r="E47">
         <v>0.40899968147277821</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I47" s="6">
@@ -23668,8 +24085,25 @@
         <f t="shared" si="1"/>
         <v>57.936869315669917</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="N47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47" s="6">
+        <v>6.0119960483488097E-3</v>
+      </c>
+      <c r="P47" s="6">
+        <v>1.9482201079993307E-3</v>
+      </c>
+      <c r="Q47" s="6">
+        <f t="shared" si="2"/>
+        <v>32.405545385120604</v>
+      </c>
+      <c r="R47" s="6">
+        <f t="shared" si="3"/>
+        <v>67.594454614879396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>1.0159997940063477</v>
       </c>
@@ -23685,7 +24119,7 @@
       <c r="E48">
         <v>0.38599967956542958</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I48" s="6">
@@ -23702,8 +24136,25 @@
         <f t="shared" si="1"/>
         <v>58.13528030946393</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="N48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" s="6">
+        <v>6.0119960483488097E-3</v>
+      </c>
+      <c r="P48" s="6">
+        <v>1.9482201079993307E-3</v>
+      </c>
+      <c r="Q48" s="6">
+        <f t="shared" si="2"/>
+        <v>32.405545385120604</v>
+      </c>
+      <c r="R48" s="6">
+        <f t="shared" si="3"/>
+        <v>67.594454614879396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15">
       <c r="A49">
         <v>1.0989997386932373</v>
       </c>
@@ -23722,24 +24173,43 @@
       <c r="H49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="12">
         <f>SUM(I43:I48)</f>
         <v>79.458581631415157</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="12">
         <f>SUM(J43:J48)</f>
         <v>5.7415349275153575</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="12">
         <f t="shared" si="0"/>
         <v>7.2258210625362516</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="12">
         <f t="shared" si="1"/>
         <v>92.774178937463745</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="N49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" s="12">
+        <f>SUM(O43:O48)</f>
+        <v>94.034825845353453</v>
+      </c>
+      <c r="P49" s="12">
+        <f>SUM(P43:P48)</f>
+        <v>5.851164716034968</v>
+      </c>
+      <c r="Q49" s="12">
+        <f t="shared" si="2"/>
+        <v>6.2223380151281384</v>
+      </c>
+      <c r="R49" s="12">
+        <f t="shared" si="3"/>
+        <v>93.777661984871855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15">
       <c r="A50">
         <v>1.1649997234344482</v>
       </c>
@@ -23756,16 +24226,25 @@
         <v>0.41199970245361317</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="N50" s="7"/>
+      <c r="O50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>1.2419998645782471</v>
       </c>
@@ -23781,7 +24260,7 @@
       <c r="E51">
         <v>0.31099987030029286</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I51" s="6">
@@ -23798,8 +24277,25 @@
         <f t="shared" si="1"/>
         <v>93.274965463822426</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="N51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O51" s="6">
+        <v>12.648326595515647</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0.6037104973943298</v>
+      </c>
+      <c r="Q51" s="6">
+        <f t="shared" ref="Q51:Q63" si="4">P51/O51*100</f>
+        <v>4.7730464013189708</v>
+      </c>
+      <c r="R51" s="6">
+        <f t="shared" ref="R51:R63" si="5">100-Q51</f>
+        <v>95.226953598681035</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>2.1099998950958252</v>
       </c>
@@ -23815,7 +24311,7 @@
       <c r="E52">
         <v>0.42899990081787098</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="5">
@@ -23832,8 +24328,25 @@
         <f t="shared" si="1"/>
         <v>95.535548889596626</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="N52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="5">
+        <v>9.6905542877907767</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0.62603854108367085</v>
+      </c>
+      <c r="Q52" s="6">
+        <f t="shared" si="4"/>
+        <v>6.4602965164998141</v>
+      </c>
+      <c r="R52" s="6">
+        <f t="shared" si="5"/>
+        <v>93.53970348350019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15">
       <c r="A53">
         <v>2.1369998455047607</v>
       </c>
@@ -23852,22 +24365,39 @@
       <c r="H53" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="12">
         <v>23.51317659018418</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="12">
         <v>2.0399864010763706</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="12">
         <f t="shared" si="0"/>
         <v>8.6759285511766375</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="12">
         <f t="shared" si="1"/>
         <v>91.324071448823361</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="N53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O53" s="12">
+        <v>14.499309794728745</v>
+      </c>
+      <c r="P53" s="12">
+        <v>0.75814255101512074</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" si="4"/>
+        <v>5.228818210993361</v>
+      </c>
+      <c r="R53" s="12">
+        <f t="shared" si="5"/>
+        <v>94.771181789006633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>1.1419999599456787</v>
       </c>
@@ -23883,7 +24413,7 @@
       <c r="E54">
         <v>0.29199981689453114</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I54" s="5">
@@ -23900,8 +24430,25 @@
         <f t="shared" si="1"/>
         <v>75.57555826841886</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="N54" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" s="5">
+        <v>21.051090811239284</v>
+      </c>
+      <c r="P54" s="6">
+        <v>4.0104277798301009</v>
+      </c>
+      <c r="Q54" s="6">
+        <f t="shared" si="4"/>
+        <v>19.050926224159905</v>
+      </c>
+      <c r="R54" s="6">
+        <f t="shared" si="5"/>
+        <v>80.949073775840091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>1.0769999027252197</v>
       </c>
@@ -23917,7 +24464,7 @@
       <c r="E55">
         <v>0.36699986457824696</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I55" s="6">
@@ -23934,8 +24481,25 @@
         <f t="shared" si="1"/>
         <v>57.936869315669917</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="N55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O55" s="6">
+        <v>1.6699989023191137</v>
+      </c>
+      <c r="P55" s="6">
+        <v>0.54117225222203635</v>
+      </c>
+      <c r="Q55" s="6">
+        <f t="shared" si="4"/>
+        <v>32.405545385120604</v>
+      </c>
+      <c r="R55" s="6">
+        <f t="shared" si="5"/>
+        <v>67.594454614879396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>0.98399996757507313</v>
       </c>
@@ -23951,7 +24515,7 @@
       <c r="E56">
         <v>0.33199977874755848</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I56" s="6">
@@ -23968,8 +24532,25 @@
         <f t="shared" si="1"/>
         <v>58.135280309463923</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="N56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O56" s="6">
+        <v>1.6699989023191137</v>
+      </c>
+      <c r="P56" s="6">
+        <v>0.54117225222203635</v>
+      </c>
+      <c r="Q56" s="6">
+        <f t="shared" si="4"/>
+        <v>32.405545385120604</v>
+      </c>
+      <c r="R56" s="6">
+        <f t="shared" si="5"/>
+        <v>67.594454614879396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15">
       <c r="A57">
         <v>1.05899977684021</v>
       </c>
@@ -23990,8 +24571,13 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="N57" s="7"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+    </row>
+    <row r="58" spans="1:18" ht="15">
       <c r="A58">
         <v>1.4199998378753662</v>
       </c>
@@ -24008,16 +24594,25 @@
         <v>0.38699984550476063</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="13" t="s">
+      <c r="I58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="N58" s="7"/>
+      <c r="O58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>1.057999849319458</v>
       </c>
@@ -24033,7 +24628,7 @@
       <c r="E59">
         <v>0.31900000572204579</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I59" s="6">
@@ -24046,8 +24641,21 @@
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="N59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O59" s="6">
+        <f>O43/O51</f>
+        <v>2.7647999999999997</v>
+      </c>
+      <c r="P59" s="6">
+        <f>P43/P51</f>
+        <v>2.7647999999999997</v>
+      </c>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>1.7219998836517334</v>
       </c>
@@ -24063,21 +24671,34 @@
       <c r="E60">
         <v>0.36699986457824696</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="6">
-        <f t="shared" ref="I60:I64" si="2">I44/I52</f>
+        <f t="shared" ref="I60:I64" si="6">I44/I52</f>
         <v>2.7647999999999997</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" ref="J60:J64" si="3">J44/J52</f>
+        <f t="shared" ref="J60:J64" si="7">J44/J52</f>
         <v>2.7647999999999997</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="N60" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" ref="O60:P64" si="8">O44/O52</f>
+        <v>2.7647999999999997</v>
+      </c>
+      <c r="P60" s="6">
+        <f t="shared" si="8"/>
+        <v>2.7647999999999997</v>
+      </c>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="1:18" ht="15">
       <c r="A61">
         <v>1.0949997901916504</v>
       </c>
@@ -24096,18 +24717,31 @@
       <c r="H61" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I61" s="13">
-        <f t="shared" si="2"/>
+      <c r="I61" s="12">
+        <f t="shared" si="6"/>
         <v>0.61439999999999995</v>
       </c>
-      <c r="J61" s="13">
-        <f t="shared" si="3"/>
+      <c r="J61" s="12">
+        <f t="shared" si="7"/>
         <v>0.61439999999999995</v>
       </c>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="N61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O61" s="12">
+        <f t="shared" si="8"/>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="P61" s="12">
+        <f t="shared" si="8"/>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>1.1419999599456787</v>
       </c>
@@ -24123,21 +24757,34 @@
       <c r="E62">
         <v>0.3359999656677245</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2656202137866791</v>
       </c>
       <c r="J62" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.26557173935155753</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="N62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="8"/>
+        <v>0.26293821175726928</v>
+      </c>
+      <c r="P62" s="6">
+        <f t="shared" si="8"/>
+        <v>0.26178000000000001</v>
+      </c>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>1.0809998512268066</v>
       </c>
@@ -24153,21 +24800,34 @@
       <c r="E63">
         <v>0.34299969673156727</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.6000000000000003E-3</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.5999999999999995E-3</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="N63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="8"/>
+        <v>3.6000000000000003E-3</v>
+      </c>
+      <c r="P63" s="6">
+        <f t="shared" si="8"/>
+        <v>3.5999999999999995E-3</v>
+      </c>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>1.5099999904632568</v>
       </c>
@@ -24183,19 +24843,32 @@
       <c r="E64">
         <v>0.35599994659423817</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.6000000000000003E-3</v>
       </c>
       <c r="J64" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
+      <c r="N64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" si="8"/>
+        <v>3.6000000000000003E-3</v>
+      </c>
+      <c r="P64" s="6">
+        <f t="shared" si="8"/>
+        <v>3.5999999999999995E-3</v>
+      </c>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
@@ -24214,7 +24887,7 @@
         <v>0.39599990844726551</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" ht="15">
       <c r="A66">
         <v>1.0060000419616699</v>
       </c>
@@ -24230,15 +24903,15 @@
       <c r="E66">
         <v>0.31199979782104481</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="16"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="18"/>
+    </row>
+    <row r="67" spans="1:12" ht="15">
       <c r="A67">
         <v>1.0920000076293945</v>
       </c>
@@ -24254,21 +24927,21 @@
       <c r="E67">
         <v>0.40299987792968739</v>
       </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="10" t="s">
+      <c r="H67" s="8"/>
+      <c r="I67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="K67" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="13" t="s">
+      <c r="L67" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" ht="15">
       <c r="A68">
         <v>1.1129996776580811</v>
       </c>
@@ -24287,22 +24960,22 @@
       <c r="H68" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="12">
         <v>14.54199972018759</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="12">
         <v>5.8798568487088225</v>
       </c>
-      <c r="K68" s="13">
-        <f t="shared" ref="K68" si="4">J68/I68*100</f>
+      <c r="K68" s="12">
+        <f t="shared" ref="K68" si="9">J68/I68*100</f>
         <v>40.433619597353236</v>
       </c>
-      <c r="L68" s="13">
-        <f t="shared" ref="L68:L70" si="5">100-K68</f>
+      <c r="L68" s="12">
+        <f t="shared" ref="L68:L70" si="10">100-K68</f>
         <v>59.566380402646764</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" ht="15">
       <c r="A69">
         <v>1.0709996223449707</v>
       </c>
@@ -24319,16 +24992,16 @@
         <v>0.26299977302551258</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="12" t="s">
+      <c r="I69" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" ht="15">
       <c r="A70">
         <v>1.7149999141693115</v>
       </c>
@@ -24347,22 +25020,22 @@
       <c r="H70" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="12">
         <v>23.668619336242823</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="12">
         <v>9.5700795063620152</v>
       </c>
-      <c r="K70" s="13">
-        <f t="shared" ref="K70" si="6">J70/I70*100</f>
+      <c r="K70" s="12">
+        <f t="shared" ref="K70" si="11">J70/I70*100</f>
         <v>40.433619597353228</v>
       </c>
-      <c r="L70" s="13">
-        <f t="shared" si="5"/>
+      <c r="L70" s="12">
+        <f t="shared" si="10"/>
         <v>59.566380402646772</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71">
         <v>1.555999755859375</v>
       </c>
@@ -24379,16 +25052,16 @@
         <v>0.28299975395202626</v>
       </c>
       <c r="H71" s="7"/>
-      <c r="I71" s="13" t="s">
+      <c r="I71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="J71" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72">
         <v>1.1869997978210449</v>
       </c>
@@ -24407,16 +25080,16 @@
       <c r="H72" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="12">
         <f>I68/I70</f>
         <v>0.61439999999999995</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="12">
         <f>J68/J70</f>
         <v>0.61440000000000006</v>
       </c>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
@@ -24435,7 +25108,7 @@
         <v>0.3489999771118163</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74">
         <v>0.98699975013732899</v>
       </c>
@@ -24451,15 +25124,15 @@
       <c r="E74">
         <v>0.38699984550476063</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I74" s="8"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="I74" s="15"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+    </row>
+    <row r="75" spans="1:12" ht="15">
       <c r="A75">
         <v>1.2949998378753662</v>
       </c>
@@ -24475,15 +25148,15 @@
       <c r="E75">
         <v>0.35699987411499012</v>
       </c>
-      <c r="H75" s="9"/>
-      <c r="I75" s="10" t="s">
+      <c r="H75" s="8"/>
+      <c r="I75" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="20"/>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="1:12" ht="15">
       <c r="A76">
         <v>1.2669999599456787</v>
       </c>
@@ -24502,14 +25175,14 @@
       <c r="H76" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="12">
         <v>0.62355851552065544</v>
       </c>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="20"/>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="1:12" ht="15">
       <c r="A77">
         <v>1.0060000419616699</v>
       </c>
@@ -24526,14 +25199,12 @@
         <v>0.33099961280822743</v>
       </c>
       <c r="H77" s="7"/>
-      <c r="I77" s="12" t="s">
+      <c r="I77" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="20"/>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12" ht="15">
       <c r="A78">
         <v>1.1039998531341553</v>
       </c>
@@ -24552,14 +25223,14 @@
       <c r="H78" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I78" s="12">
         <v>1.0149064380219002</v>
       </c>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="20"/>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="1:12" ht="15">
       <c r="A79">
         <v>1.1739997863769531</v>
       </c>
@@ -24576,14 +25247,12 @@
         <v>0.31199979782104481</v>
       </c>
       <c r="H79" s="7"/>
-      <c r="I79" s="13" t="s">
+      <c r="I79" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="20"/>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="1:12" ht="15">
       <c r="A80">
         <v>1.0029997825622559</v>
       </c>
@@ -24602,13 +25271,13 @@
       <c r="H80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="12">
         <f>I76/I78</f>
         <v>0.61439999999999995</v>
       </c>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="20"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
@@ -24627,7 +25296,7 @@
         <v>0.61999964714050282</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82">
         <v>0.94400000572204579</v>
       </c>
@@ -24643,12 +25312,12 @@
       <c r="E82">
         <v>0.35399961471557606</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="H82" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="8"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="15">
       <c r="A83">
         <v>1.0149998664855957</v>
       </c>
@@ -24664,12 +25333,12 @@
       <c r="E83">
         <v>0.49199986457824696</v>
       </c>
-      <c r="H83" s="9"/>
-      <c r="I83" s="10" t="s">
+      <c r="H83" s="8"/>
+      <c r="I83" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84">
         <v>1.0859999656677246</v>
       </c>
@@ -24692,7 +25361,7 @@
         <v>1.9114147682467477</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85">
         <v>1.0559999942779541</v>
       </c>
@@ -24709,11 +25378,11 @@
         <v>0.45799994468688954</v>
       </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="12" t="s">
+      <c r="I85" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86">
         <v>0.93099999427795399</v>
       </c>
@@ -24736,7 +25405,7 @@
         <v>1.0370088803422026</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87">
         <v>1.0129997730255127</v>
       </c>
@@ -24753,11 +25422,11 @@
         <v>0.39599990844726551</v>
       </c>
       <c r="H87" s="7"/>
-      <c r="I87" s="13" t="s">
+      <c r="I87" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88">
         <v>1.0949997901916504</v>
       </c>
@@ -42028,11 +42697,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="H41:L41"/>
     <mergeCell ref="H66:L66"/>
     <mergeCell ref="H74:I74"/>
+    <mergeCell ref="N41:R41"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
